--- a/Daily Activity/2025/Jan/ACL CheckList/Users and Roles/User_NGUYEDD42  Role_NGUYEDD42  ACL CheckList.xlsx
+++ b/Daily Activity/2025/Jan/ACL CheckList/Users and Roles/User_NGUYEDD42  Role_NGUYEDD42  ACL CheckList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="222">
   <si>
     <t xml:space="preserve">ORG ACCESS</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">Update Invoice Details to TMS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Generate Picking List Summary</t>
@@ -442,6 +439,9 @@
     <t xml:space="preserve">Reopen Order</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Document Value based Workflows</t>
   </si>
   <si>
@@ -592,6 +592,9 @@
     <t xml:space="preserve">Copy Details</t>
   </si>
   <si>
+    <t xml:space="preserve">Tax Invoice List By SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">TaxInvoiceListBySKU</t>
   </si>
   <si>
@@ -624,21 +627,32 @@
     <t xml:space="preserve">RMA Summary</t>
   </si>
   <si>
+    <t xml:space="preserve">Picking List Summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pick List Sum Header</t>
   </si>
   <si>
     <t xml:space="preserve">List Of Promotion Gift</t>
   </si>
   <si>
+    <t xml:space="preserve">Gift Product Report</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Gift Product Report</t>
+    <t xml:space="preserve">Master Debit (MTS)</t>
   </si>
   <si>
     <t xml:space="preserve">Master Debit Report</t>
   </si>
   <si>
+    <t xml:space="preserve">Material Receipt
+Material Receipt Authorization
+Tally Sheet Confirmation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goods Receive Note</t>
   </si>
   <si>
@@ -655,6 +669,9 @@
   </si>
   <si>
     <t xml:space="preserve">Inventory In Gift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Invoices from SO</t>
   </si>
   <si>
     <t xml:space="preserve">Generate Invoice From SO</t>
@@ -716,7 +733,30 @@
     <t xml:space="preserve">List Of Doc InventoryOut By Company</t>
   </si>
   <si>
+    <t xml:space="preserve">Sales Order
+Purchase Order
+Business Partner Info
+Goods Receipt
+Customer RMA Authorization
+DSO Sales Order Approval
+Customer RMA
+Vendor RMA
+Sales Order Approval
+NTA Purchase Order
+Sales Rep Info</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copy Order Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage DO
+Material Receipt
+Business Partner Info
+Tally Sheet Confirmation
+Customer Return
+Return to Vendor
+Manage Tally Sheet
+Material Receipt Authorization</t>
   </si>
   <si>
     <t xml:space="preserve">Create Confirmation</t>
@@ -971,6 +1011,9 @@
     <t xml:space="preserve">Update Lot</t>
   </si>
   <si>
+    <t xml:space="preserve">Daily Sales Report</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily Sales</t>
   </si>
   <si>
@@ -978,6 +1021,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create From ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery Order Confirmation Report</t>
   </si>
   <si>
     <t xml:space="preserve">Delivery Order Confirm</t>
@@ -1160,9 +1206,6 @@
   </si>
   <si>
     <t xml:space="preserve">TMS Interface Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Read/write access</t>
   </si>
   <si>
     <t xml:space="preserve">Material Receipt</t>
@@ -1373,7 +1416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1436,6 +1479,10 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1558,23 +1605,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K142" activeCellId="0" sqref="K142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.87"/>
@@ -1659,7 +1706,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1765,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1823,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1881,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1939,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1997,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2055,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2037,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2066,7 +2113,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2080,10 +2127,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>23</v>
@@ -2124,7 +2171,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2138,10 +2185,10 @@
         <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>23</v>
@@ -2182,7 +2229,7 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="7" customFormat="true" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="7" customFormat="true" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2196,54 +2243,54 @@
         <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="7" customFormat="true" ht="214.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="7" customFormat="true" ht="214.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -2257,54 +2304,54 @@
         <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="7" customFormat="true" ht="158.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="7" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2318,13 +2365,13 @@
         <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>24</v>
@@ -2362,7 +2409,7 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2376,19 +2423,19 @@
         <v>21</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>25</v>
@@ -2420,7 +2467,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2434,13 +2481,13 @@
         <v>21</v>
       </c>
       <c r="E15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>24</v>
@@ -2478,7 +2525,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="7" customFormat="true" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="7" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2492,13 +2539,13 @@
         <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>24</v>
@@ -2536,7 +2583,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2550,13 +2597,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>24</v>
@@ -2594,7 +2641,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2608,13 +2655,13 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>24</v>
@@ -2652,7 +2699,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2666,13 +2713,13 @@
         <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>24</v>
@@ -2710,7 +2757,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2724,25 +2771,25 @@
         <v>21</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2768,7 +2815,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2782,13 +2829,13 @@
         <v>21</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>24</v>
@@ -2826,7 +2873,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2840,13 +2887,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>24</v>
@@ -2884,7 +2931,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2898,13 +2945,13 @@
         <v>21</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>24</v>
@@ -2942,7 +2989,7 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2956,13 +3003,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>24</v>
@@ -3000,7 +3047,7 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -3014,13 +3061,13 @@
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>24</v>
@@ -3058,7 +3105,7 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -3072,13 +3119,13 @@
         <v>21</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>24</v>
@@ -3116,7 +3163,7 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -3130,13 +3177,13 @@
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>24</v>
@@ -3174,7 +3221,7 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="7" customFormat="true" ht="91.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="7" customFormat="true" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -3188,13 +3235,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>24</v>
@@ -3232,7 +3279,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -3246,13 +3293,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>24</v>
@@ -3290,7 +3337,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -3304,13 +3351,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>24</v>
@@ -3348,7 +3395,7 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3362,13 +3409,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>24</v>
@@ -3406,7 +3453,7 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -3420,19 +3467,19 @@
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>25</v>
@@ -3464,7 +3511,7 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3478,13 +3525,13 @@
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>24</v>
@@ -3522,7 +3569,7 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>24</v>
@@ -3580,7 +3627,7 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>19</v>
       </c>
@@ -3600,7 +3647,7 @@
         <v>81</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>24</v>
@@ -3638,7 +3685,7 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
@@ -3658,7 +3705,7 @@
         <v>82</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>24</v>
@@ -3696,7 +3743,7 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="7" customFormat="true" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="7" customFormat="true" ht="128.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>19</v>
       </c>
@@ -3716,7 +3763,7 @@
         <v>84</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>24</v>
@@ -3754,7 +3801,7 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="7" customFormat="true" ht="183.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="7" customFormat="true" ht="166.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
@@ -3774,7 +3821,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>24</v>
@@ -3812,7 +3859,7 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -3832,7 +3879,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>24</v>
@@ -3870,7 +3917,7 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="7" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="7" customFormat="true" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
@@ -3890,7 +3937,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>24</v>
@@ -3928,7 +3975,7 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="7" customFormat="true" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="7" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -3948,7 +3995,7 @@
         <v>90</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>24</v>
@@ -3986,7 +4033,7 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -4006,7 +4053,7 @@
         <v>91</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>24</v>
@@ -4044,7 +4091,7 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -4058,13 +4105,13 @@
         <v>21</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>24</v>
@@ -4102,7 +4149,7 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="7" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="7" customFormat="true" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>19</v>
       </c>
@@ -4122,10 +4169,10 @@
         <v>94</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>24</v>
@@ -4160,7 +4207,7 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>19</v>
       </c>
@@ -4174,13 +4221,13 @@
         <v>21</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>24</v>
@@ -4218,7 +4265,7 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>19</v>
       </c>
@@ -4238,7 +4285,7 @@
         <v>96</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>24</v>
@@ -4276,7 +4323,7 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="7" customFormat="true" ht="85.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="7" customFormat="true" ht="64.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -4296,7 +4343,7 @@
         <v>98</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>24</v>
@@ -4334,7 +4381,7 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>19</v>
       </c>
@@ -4348,13 +4395,13 @@
         <v>21</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>24</v>
@@ -4392,7 +4439,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>19</v>
       </c>
@@ -4406,13 +4453,13 @@
         <v>21</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>24</v>
@@ -4450,7 +4497,7 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>19</v>
       </c>
@@ -4470,7 +4517,7 @@
         <v>101</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>24</v>
@@ -4508,7 +4555,7 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>19</v>
       </c>
@@ -4528,7 +4575,7 @@
         <v>103</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>24</v>
@@ -4566,7 +4613,7 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
@@ -4580,19 +4627,19 @@
         <v>21</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>25</v>
@@ -4624,7 +4671,7 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="7" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="7" customFormat="true" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>19</v>
       </c>
@@ -4638,19 +4685,19 @@
         <v>21</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>25</v>
@@ -4682,7 +4729,7 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
@@ -4696,13 +4743,13 @@
         <v>21</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>24</v>
@@ -4740,7 +4787,7 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
@@ -4754,13 +4801,13 @@
         <v>21</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>24</v>
@@ -4798,7 +4845,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
@@ -4812,13 +4859,13 @@
         <v>21</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>24</v>
@@ -4856,7 +4903,7 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>19</v>
       </c>
@@ -4870,13 +4917,13 @@
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>24</v>
@@ -4914,7 +4961,7 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>19</v>
       </c>
@@ -4928,13 +4975,13 @@
         <v>21</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>24</v>
@@ -4972,7 +5019,7 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>19</v>
       </c>
@@ -4986,13 +5033,13 @@
         <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>24</v>
@@ -5030,7 +5077,7 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>19</v>
       </c>
@@ -5044,13 +5091,13 @@
         <v>21</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>24</v>
@@ -5059,10 +5106,10 @@
         <v>24</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>26</v>
@@ -5088,7 +5135,7 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>19</v>
       </c>
@@ -5102,13 +5149,13 @@
         <v>21</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>24</v>
@@ -5117,10 +5164,10 @@
         <v>24</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>26</v>
@@ -5146,7 +5193,7 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>19</v>
       </c>
@@ -5160,13 +5207,13 @@
         <v>21</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>24</v>
@@ -5175,10 +5222,10 @@
         <v>24</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>26</v>
@@ -5204,7 +5251,7 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="7" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>19</v>
       </c>
@@ -5217,14 +5264,14 @@
       <c r="D63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>34</v>
+      <c r="E63" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>24</v>
@@ -5233,10 +5280,10 @@
         <v>24</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>26</v>
@@ -5262,7 +5309,7 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>19</v>
       </c>
@@ -5276,13 +5323,13 @@
         <v>21</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>24</v>
@@ -5320,7 +5367,7 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>19</v>
       </c>
@@ -5333,14 +5380,14 @@
       <c r="D65" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>121</v>
+      <c r="E65" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>24</v>
@@ -5378,7 +5425,7 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>19</v>
       </c>
@@ -5392,13 +5439,13 @@
         <v>21</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>24</v>
@@ -5407,10 +5454,10 @@
         <v>24</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>26</v>
@@ -5436,7 +5483,7 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>19</v>
       </c>
@@ -5450,13 +5497,13 @@
         <v>21</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>24</v>
@@ -5494,7 +5541,7 @@
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>19</v>
       </c>
@@ -5508,13 +5555,13 @@
         <v>21</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>24</v>
@@ -5552,7 +5599,7 @@
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="7" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="7" customFormat="true" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>19</v>
       </c>
@@ -5569,13 +5616,13 @@
         <v>93</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>24</v>
@@ -5610,7 +5657,7 @@
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" s="7" customFormat="true" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="7" customFormat="true" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>19</v>
       </c>
@@ -5624,13 +5671,13 @@
         <v>21</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>24</v>
@@ -5668,7 +5715,7 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="7" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="7" customFormat="true" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>19</v>
       </c>
@@ -5682,13 +5729,13 @@
         <v>21</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>24</v>
@@ -5726,7 +5773,7 @@
       <c r="AMI71" s="0"/>
       <c r="AMJ71" s="0"/>
     </row>
-    <row r="72" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>19</v>
       </c>
@@ -5740,13 +5787,13 @@
         <v>21</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>24</v>
@@ -5784,7 +5831,7 @@
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="7" customFormat="true" ht="124.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
@@ -5797,14 +5844,14 @@
       <c r="D73" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>34</v>
+      <c r="E73" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>24</v>
@@ -5842,7 +5889,7 @@
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="7" customFormat="true" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>19</v>
       </c>
@@ -5855,14 +5902,14 @@
       <c r="D74" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>34</v>
+      <c r="E74" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>24</v>
@@ -5900,7 +5947,7 @@
       <c r="AMI74" s="0"/>
       <c r="AMJ74" s="0"/>
     </row>
-    <row r="75" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>19</v>
       </c>
@@ -5914,13 +5961,13 @@
         <v>21</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>24</v>
@@ -5958,7 +6005,7 @@
       <c r="AMI75" s="0"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="7" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="7" customFormat="true" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>19</v>
       </c>
@@ -5975,13 +6022,13 @@
         <v>93</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>24</v>
@@ -6016,7 +6063,7 @@
       <c r="AMI76" s="0"/>
       <c r="AMJ76" s="0"/>
     </row>
-    <row r="77" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>19</v>
       </c>
@@ -6030,13 +6077,13 @@
         <v>21</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>24</v>
@@ -6045,10 +6092,10 @@
         <v>24</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>26</v>
@@ -6074,7 +6121,7 @@
       <c r="AMI77" s="0"/>
       <c r="AMJ77" s="0"/>
     </row>
-    <row r="78" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>19</v>
       </c>
@@ -6087,14 +6134,14 @@
       <c r="D78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>137</v>
+      <c r="E78" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>24</v>
@@ -6132,7 +6179,7 @@
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
     </row>
-    <row r="79" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>19</v>
       </c>
@@ -6146,13 +6193,13 @@
         <v>21</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>24</v>
@@ -6190,7 +6237,7 @@
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
     </row>
-    <row r="80" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>19</v>
       </c>
@@ -6204,13 +6251,13 @@
         <v>21</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>24</v>
@@ -6219,10 +6266,10 @@
         <v>24</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>26</v>
@@ -6248,7 +6295,7 @@
       <c r="AMI80" s="0"/>
       <c r="AMJ80" s="0"/>
     </row>
-    <row r="81" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>19</v>
       </c>
@@ -6262,13 +6309,13 @@
         <v>21</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>24</v>
@@ -6306,7 +6353,7 @@
       <c r="AMI81" s="0"/>
       <c r="AMJ81" s="0"/>
     </row>
-    <row r="82" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>19</v>
       </c>
@@ -6320,13 +6367,13 @@
         <v>21</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>24</v>
@@ -6364,7 +6411,7 @@
       <c r="AMI82" s="0"/>
       <c r="AMJ82" s="0"/>
     </row>
-    <row r="83" s="7" customFormat="true" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="7" customFormat="true" ht="115.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>19</v>
       </c>
@@ -6378,13 +6425,13 @@
         <v>21</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>24</v>
@@ -6422,7 +6469,7 @@
       <c r="AMI83" s="0"/>
       <c r="AMJ83" s="0"/>
     </row>
-    <row r="84" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="7" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>19</v>
       </c>
@@ -6436,13 +6483,13 @@
         <v>21</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>24</v>
@@ -6480,7 +6527,7 @@
       <c r="AMI84" s="0"/>
       <c r="AMJ84" s="0"/>
     </row>
-    <row r="85" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="7" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>19</v>
       </c>
@@ -6494,13 +6541,13 @@
         <v>21</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>24</v>
@@ -6538,7 +6585,7 @@
       <c r="AMI85" s="0"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="7" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>19</v>
       </c>
@@ -6552,13 +6599,13 @@
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>24</v>
@@ -6596,7 +6643,7 @@
       <c r="AMI86" s="0"/>
       <c r="AMJ86" s="0"/>
     </row>
-    <row r="87" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>19</v>
       </c>
@@ -6609,14 +6656,14 @@
       <c r="D87" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>152</v>
+      <c r="E87" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>24</v>
@@ -6654,7 +6701,7 @@
       <c r="AMI87" s="0"/>
       <c r="AMJ87" s="0"/>
     </row>
-    <row r="88" s="7" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="7" customFormat="true" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>19</v>
       </c>
@@ -6668,13 +6715,13 @@
         <v>21</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>24</v>
@@ -6712,7 +6759,7 @@
       <c r="AMI88" s="0"/>
       <c r="AMJ88" s="0"/>
     </row>
-    <row r="89" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>19</v>
       </c>
@@ -6726,13 +6773,13 @@
         <v>21</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>24</v>
@@ -6741,10 +6788,10 @@
         <v>24</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>26</v>
@@ -6770,7 +6817,7 @@
       <c r="AMI89" s="0"/>
       <c r="AMJ89" s="0"/>
     </row>
-    <row r="90" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>19</v>
       </c>
@@ -6784,13 +6831,13 @@
         <v>21</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>24</v>
@@ -6828,7 +6875,7 @@
       <c r="AMI90" s="0"/>
       <c r="AMJ90" s="0"/>
     </row>
-    <row r="91" s="7" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="7" customFormat="true" ht="90.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>19</v>
       </c>
@@ -6842,13 +6889,13 @@
         <v>21</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>24</v>
@@ -6886,7 +6933,7 @@
       <c r="AMI91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
-    <row r="92" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>19</v>
       </c>
@@ -6900,13 +6947,13 @@
         <v>21</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>24</v>
@@ -6944,7 +6991,7 @@
       <c r="AMI92" s="0"/>
       <c r="AMJ92" s="0"/>
     </row>
-    <row r="93" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>19</v>
       </c>
@@ -6958,13 +7005,13 @@
         <v>21</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>24</v>
@@ -7002,7 +7049,7 @@
       <c r="AMI93" s="0"/>
       <c r="AMJ93" s="0"/>
     </row>
-    <row r="94" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>19</v>
       </c>
@@ -7016,13 +7063,13 @@
         <v>21</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>24</v>
@@ -7031,10 +7078,10 @@
         <v>24</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>26</v>
@@ -7060,7 +7107,7 @@
       <c r="AMI94" s="0"/>
       <c r="AMJ94" s="0"/>
     </row>
-    <row r="95" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>19</v>
       </c>
@@ -7074,13 +7121,13 @@
         <v>21</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>24</v>
@@ -7118,7 +7165,7 @@
       <c r="AMI95" s="0"/>
       <c r="AMJ95" s="0"/>
     </row>
-    <row r="96" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>19</v>
       </c>
@@ -7132,13 +7179,13 @@
         <v>21</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>24</v>
@@ -7176,7 +7223,7 @@
       <c r="AMI96" s="0"/>
       <c r="AMJ96" s="0"/>
     </row>
-    <row r="97" s="7" customFormat="true" ht="136.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="7" customFormat="true" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>19</v>
       </c>
@@ -7190,13 +7237,13 @@
         <v>21</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>24</v>
@@ -7234,7 +7281,7 @@
       <c r="AMI97" s="0"/>
       <c r="AMJ97" s="0"/>
     </row>
-    <row r="98" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>19</v>
       </c>
@@ -7248,13 +7295,13 @@
         <v>21</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>24</v>
@@ -7292,7 +7339,7 @@
       <c r="AMI98" s="0"/>
       <c r="AMJ98" s="0"/>
     </row>
-    <row r="99" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>19</v>
       </c>
@@ -7306,13 +7353,13 @@
         <v>21</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>24</v>
@@ -7350,7 +7397,7 @@
       <c r="AMI99" s="0"/>
       <c r="AMJ99" s="0"/>
     </row>
-    <row r="100" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>19</v>
       </c>
@@ -7364,13 +7411,13 @@
         <v>21</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>24</v>
@@ -7408,7 +7455,7 @@
       <c r="AMI100" s="0"/>
       <c r="AMJ100" s="0"/>
     </row>
-    <row r="101" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>19</v>
       </c>
@@ -7422,13 +7469,13 @@
         <v>21</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>24</v>
@@ -7466,7 +7513,7 @@
       <c r="AMI101" s="0"/>
       <c r="AMJ101" s="0"/>
     </row>
-    <row r="102" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>19</v>
       </c>
@@ -7480,13 +7527,13 @@
         <v>21</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>24</v>
@@ -7524,7 +7571,7 @@
       <c r="AMI102" s="0"/>
       <c r="AMJ102" s="0"/>
     </row>
-    <row r="103" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>19</v>
       </c>
@@ -7538,13 +7585,13 @@
         <v>21</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>24</v>
@@ -7582,7 +7629,7 @@
       <c r="AMI103" s="0"/>
       <c r="AMJ103" s="0"/>
     </row>
-    <row r="104" s="7" customFormat="true" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="7" customFormat="true" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>19</v>
       </c>
@@ -7596,13 +7643,13 @@
         <v>21</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>24</v>
@@ -7640,7 +7687,7 @@
       <c r="AMI104" s="0"/>
       <c r="AMJ104" s="0"/>
     </row>
-    <row r="105" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>19</v>
       </c>
@@ -7654,13 +7701,13 @@
         <v>21</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>24</v>
@@ -7698,7 +7745,7 @@
       <c r="AMI105" s="0"/>
       <c r="AMJ105" s="0"/>
     </row>
-    <row r="106" s="7" customFormat="true" ht="141.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="7" customFormat="true" ht="128.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>19</v>
       </c>
@@ -7712,13 +7759,13 @@
         <v>21</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>24</v>
@@ -7756,7 +7803,7 @@
       <c r="AMI106" s="0"/>
       <c r="AMJ106" s="0"/>
     </row>
-    <row r="107" s="7" customFormat="true" ht="136.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="7" customFormat="true" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>19</v>
       </c>
@@ -7770,13 +7817,13 @@
         <v>21</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>24</v>
@@ -7814,7 +7861,7 @@
       <c r="AMI107" s="0"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="108" s="7" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="7" customFormat="true" ht="90.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>19</v>
       </c>
@@ -7828,13 +7875,13 @@
         <v>21</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>24</v>
@@ -7872,7 +7919,7 @@
       <c r="AMI108" s="0"/>
       <c r="AMJ108" s="0"/>
     </row>
-    <row r="109" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>19</v>
       </c>
@@ -7886,13 +7933,13 @@
         <v>21</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>24</v>
@@ -7930,7 +7977,7 @@
       <c r="AMI109" s="0"/>
       <c r="AMJ109" s="0"/>
     </row>
-    <row r="110" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>19</v>
       </c>
@@ -7944,13 +7991,13 @@
         <v>21</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>24</v>
@@ -7988,7 +8035,7 @@
       <c r="AMI110" s="0"/>
       <c r="AMJ110" s="0"/>
     </row>
-    <row r="111" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>19</v>
       </c>
@@ -8002,13 +8049,13 @@
         <v>21</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>24</v>
@@ -8017,10 +8064,10 @@
         <v>24</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>26</v>
@@ -8046,7 +8093,7 @@
       <c r="AMI111" s="0"/>
       <c r="AMJ111" s="0"/>
     </row>
-    <row r="112" s="7" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="7" customFormat="true" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>19</v>
       </c>
@@ -8060,13 +8107,13 @@
         <v>21</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>24</v>
@@ -8104,7 +8151,7 @@
       <c r="AMI112" s="0"/>
       <c r="AMJ112" s="0"/>
     </row>
-    <row r="113" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>19</v>
       </c>
@@ -8121,10 +8168,10 @@
         <v>102</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>24</v>
@@ -8162,7 +8209,7 @@
       <c r="AMI113" s="0"/>
       <c r="AMJ113" s="0"/>
     </row>
-    <row r="114" s="7" customFormat="true" ht="183.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="7" customFormat="true" ht="166.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>19</v>
       </c>
@@ -8179,10 +8226,10 @@
         <v>85</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>24</v>
@@ -8220,7 +8267,7 @@
       <c r="AMI114" s="0"/>
       <c r="AMJ114" s="0"/>
     </row>
-    <row r="115" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>19</v>
       </c>
@@ -8233,20 +8280,20 @@
       <c r="D115" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>191</v>
+      <c r="E115" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>25</v>
@@ -8278,7 +8325,7 @@
       <c r="AMI115" s="0"/>
       <c r="AMJ115" s="0"/>
     </row>
-    <row r="116" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>19</v>
       </c>
@@ -8292,13 +8339,13 @@
         <v>21</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>24</v>
@@ -8336,7 +8383,7 @@
       <c r="AMI116" s="0"/>
       <c r="AMJ116" s="0"/>
     </row>
-    <row r="117" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>19</v>
       </c>
@@ -8350,13 +8397,13 @@
         <v>21</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>24</v>
@@ -8394,7 +8441,7 @@
       <c r="AMI117" s="0"/>
       <c r="AMJ117" s="0"/>
     </row>
-    <row r="118" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>19</v>
       </c>
@@ -8408,13 +8455,13 @@
         <v>21</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>24</v>
@@ -8452,7 +8499,7 @@
       <c r="AMI118" s="0"/>
       <c r="AMJ118" s="0"/>
     </row>
-    <row r="119" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>19</v>
       </c>
@@ -8466,13 +8513,13 @@
         <v>21</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>24</v>
@@ -8511,7 +8558,7 @@
       <c r="AMI119" s="0"/>
       <c r="AMJ119" s="0"/>
     </row>
-    <row r="120" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>19</v>
       </c>
@@ -8525,13 +8572,13 @@
         <v>21</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>24</v>
@@ -8570,7 +8617,7 @@
       <c r="AMI120" s="0"/>
       <c r="AMJ120" s="0"/>
     </row>
-    <row r="121" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>19</v>
       </c>
@@ -8583,14 +8630,14 @@
       <c r="D121" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E121" s="16" t="s">
-        <v>152</v>
+      <c r="E121" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>24</v>
@@ -8629,7 +8676,7 @@
       <c r="AMI121" s="0"/>
       <c r="AMJ121" s="0"/>
     </row>
-    <row r="122" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>19</v>
       </c>
@@ -8643,13 +8690,13 @@
         <v>21</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>24</v>
@@ -8688,7 +8735,7 @@
       <c r="AMI122" s="0"/>
       <c r="AMJ122" s="0"/>
     </row>
-    <row r="123" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>19</v>
       </c>
@@ -8702,13 +8749,13 @@
         <v>21</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>24</v>
@@ -8747,7 +8794,7 @@
       <c r="AMI123" s="0"/>
       <c r="AMJ123" s="0"/>
     </row>
-    <row r="124" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>19</v>
       </c>
@@ -8761,13 +8808,13 @@
         <v>21</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>24</v>
@@ -8806,7 +8853,7 @@
       <c r="AMI124" s="0"/>
       <c r="AMJ124" s="0"/>
     </row>
-    <row r="125" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>19</v>
       </c>
@@ -8819,20 +8866,20 @@
       <c r="D125" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="16" t="s">
-        <v>199</v>
+      <c r="E125" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>25</v>
@@ -8865,7 +8912,7 @@
       <c r="AMI125" s="0"/>
       <c r="AMJ125" s="0"/>
     </row>
-    <row r="126" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>19</v>
       </c>
@@ -8878,20 +8925,20 @@
       <c r="D126" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>200</v>
+      <c r="E126" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>25</v>
@@ -8924,7 +8971,7 @@
       <c r="AMI126" s="0"/>
       <c r="AMJ126" s="0"/>
     </row>
-    <row r="127" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>19</v>
       </c>
@@ -8938,13 +8985,13 @@
         <v>21</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>24</v>
@@ -8983,7 +9030,7 @@
       <c r="AMI127" s="0"/>
       <c r="AMJ127" s="0"/>
     </row>
-    <row r="128" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>19</v>
       </c>
@@ -8997,13 +9044,13 @@
         <v>21</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>24</v>
@@ -9042,7 +9089,7 @@
       <c r="AMI128" s="0"/>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>19</v>
       </c>
@@ -9056,13 +9103,13 @@
         <v>21</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>24</v>
@@ -9101,7 +9148,7 @@
       <c r="AMI129" s="0"/>
       <c r="AMJ129" s="0"/>
     </row>
-    <row r="130" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>19</v>
       </c>
@@ -9115,13 +9162,13 @@
         <v>21</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>24</v>
@@ -9160,7 +9207,7 @@
       <c r="AMI130" s="0"/>
       <c r="AMJ130" s="0"/>
     </row>
-    <row r="131" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>19</v>
       </c>
@@ -9174,13 +9221,13 @@
         <v>21</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>24</v>
@@ -9219,7 +9266,7 @@
       <c r="AMI131" s="0"/>
       <c r="AMJ131" s="0"/>
     </row>
-    <row r="132" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>19</v>
       </c>
@@ -9233,13 +9280,13 @@
         <v>21</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>24</v>
@@ -9248,10 +9295,10 @@
         <v>24</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>26</v>
@@ -9273,15 +9320,12 @@
       </c>
       <c r="R132" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="S132" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="T132" s="0"/>
       <c r="AMI132" s="0"/>
       <c r="AMJ132" s="0"/>
     </row>
-    <row r="133" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>19</v>
       </c>
@@ -9295,19 +9339,19 @@
         <v>21</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>25</v>
@@ -9340,7 +9384,7 @@
       <c r="AMI133" s="0"/>
       <c r="AMJ133" s="0"/>
     </row>
-    <row r="134" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>19</v>
       </c>
@@ -9354,13 +9398,13 @@
         <v>21</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>24</v>
@@ -9399,7 +9443,7 @@
       <c r="AMI134" s="0"/>
       <c r="AMJ134" s="0"/>
     </row>
-    <row r="135" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>19</v>
       </c>
@@ -9413,13 +9457,13 @@
         <v>21</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>24</v>
@@ -9458,7 +9502,7 @@
       <c r="AMI135" s="0"/>
       <c r="AMJ135" s="0"/>
     </row>
-    <row r="136" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>19</v>
       </c>
@@ -9472,13 +9516,13 @@
         <v>21</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>24</v>
@@ -9517,7 +9561,7 @@
       <c r="AMI136" s="0"/>
       <c r="AMJ136" s="0"/>
     </row>
-    <row r="137" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>19</v>
       </c>
@@ -9531,13 +9575,13 @@
         <v>21</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>24</v>
@@ -9576,7 +9620,7 @@
       <c r="AMI137" s="0"/>
       <c r="AMJ137" s="0"/>
     </row>
-    <row r="138" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>19</v>
       </c>
@@ -9590,19 +9634,19 @@
         <v>21</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>25</v>
@@ -9635,7 +9679,7 @@
       <c r="AMI138" s="0"/>
       <c r="AMJ138" s="0"/>
     </row>
-    <row r="139" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>19</v>
       </c>
@@ -9649,13 +9693,13 @@
         <v>21</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>24</v>
@@ -9694,7 +9738,7 @@
       <c r="AMI139" s="0"/>
       <c r="AMJ139" s="0"/>
     </row>
-    <row r="140" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="7" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>19</v>
       </c>
@@ -9708,13 +9752,13 @@
         <v>21</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>24</v>
@@ -9754,7 +9798,13 @@
       <c r="AMJ140" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S140"/>
+  <autoFilter ref="A1:S140">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Fail"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
